--- a/reports/result/Щербеньское.xlsx
+++ b/reports/result/Щербеньское.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\for made\Pycharm-projects\Unstructured-field-data-aggregator\reports\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\For_Python\Unstructured-field-data-aggregator\reports\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4462E7D6-8D1A-415E-B04F-95C8ED712B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960" xr2:uid="{60D599A9-3B74-4A11-9588-33EDBF9F41FA}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Щербеньское" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -80,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3152A7EE-7CA0-4F25-B656-403F34A64CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
